--- a/charts/e4e/example_bondYields.xlsx
+++ b/charts/e4e/example_bondYields.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi19329\Documents\GitHub\RDeconomist.github.io\charts\e4e\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/hi19329_bristol_ac_uk/Documents/Documents/GitHub/RDeconomist.github.io/charts/e4e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98A79FEF-F9C3-46BE-8892-590BB7C4F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{98A79FEF-F9C3-46BE-8892-590BB7C4F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9777557-E3C2-4B28-89CC-98513F39C061}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example_bondYields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -64,15 +77,6 @@
     <t>Discount Rate</t>
   </si>
   <si>
-    <t>Bond 1</t>
-  </si>
-  <si>
-    <t>Bond 2</t>
-  </si>
-  <si>
-    <t>Bond 3</t>
-  </si>
-  <si>
     <t>log</t>
   </si>
   <si>
@@ -84,11 +88,20 @@
   <si>
     <t>u3</t>
   </si>
+  <si>
+    <t>Asset 1</t>
+  </si>
+  <si>
+    <t>Asset 2</t>
+  </si>
+  <si>
+    <t>Asset 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,16 +945,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,28 +998,28 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R1" t="s">
         <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1077,7 +1093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>156.58508006159707</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>113.99366941158716</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1300,7 +1316,7 @@
         <v>48.581442030269109</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1359,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S6">
         <f>SUM(N2:N32)</f>
@@ -1374,7 +1390,7 @@
         <v>147.00000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1449,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1524,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1599,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1733,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="S11" s="4">
         <f>RANK(S6,$S$6:$U$6)</f>
@@ -1748,7 +1764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1807,7 +1823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1866,7 +1882,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1925,7 +1941,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1984,7 +2000,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2043,7 +2059,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2102,7 +2118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2161,7 +2177,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2220,7 +2236,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2279,7 +2295,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2338,7 +2354,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2397,7 +2413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2515,7 +2531,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2574,7 +2590,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2633,7 +2649,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2692,7 +2708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2751,7 +2767,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2810,7 +2826,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2869,7 +2885,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2987,7 +3003,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3034,7 +3050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3081,7 +3097,7 @@
         <v>5.9917788529999996</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3128,7 +3144,7 @@
         <v>4.7461766369999996</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -3175,7 +3191,7 @@
         <v>4.073181495</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>5.4910215940000002</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -3269,7 +3285,7 @@
         <v>5.8011526360000003</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
@@ -3316,7 +3332,7 @@
         <v>4.3039415119999997</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7</v>
       </c>
@@ -3363,7 +3379,7 @@
         <v>4.3769877890000002</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3410,7 +3426,7 @@
         <v>5.8555043710000003</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9</v>
       </c>
@@ -3457,7 +3473,7 @@
         <v>5.4040652189999996</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>10</v>
       </c>
@@ -3504,7 +3520,7 @@
         <v>4.0410842770000004</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3551,7 +3567,7 @@
         <v>4.8413475689999999</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -3598,7 +3614,7 @@
         <v>5.9995192240000002</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>4.9028480959999996</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -3692,7 +3708,7 @@
         <v>4.0253446080000002</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>15</v>
       </c>
@@ -3739,7 +3755,7 @@
         <v>5.3465929040000004</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -3786,7 +3802,7 @@
         <v>5.8859527780000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>17</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>4.4266675229999999</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>18</v>
       </c>
@@ -3880,7 +3896,7 @@
         <v>4.2607787000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19</v>
       </c>
@@ -3927,7 +3943,7 @@
         <v>5.7625194469999999</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -3974,7 +3990,7 @@
         <v>5.5440716959999996</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>21</v>
       </c>
@@ -4021,7 +4037,7 @@
         <v>4.0982377090000002</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22</v>
       </c>
@@ -4068,7 +4084,7 @@
         <v>4.6867139629999999</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23</v>
       </c>
@@ -4115,7 +4131,7 @@
         <v>5.981940765</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>24</v>
       </c>
@@ -4162,7 +4178,7 @@
         <v>5.0619805099999997</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>25</v>
       </c>
@@ -4209,7 +4225,7 @@
         <v>4.0021967260000002</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>26</v>
       </c>
@@ -4256,7 +4272,7 @@
         <v>5.1933846670000001</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -4303,7 +4319,7 @@
         <v>5.9483108429999998</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28</v>
       </c>
@@ -4350,7 +4366,7 @@
         <v>4.563916624</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>29</v>
       </c>
@@ -4397,7 +4413,7 @@
         <v>4.1632948320000001</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -4444,7 +4460,7 @@
         <v>5.6502191369999997</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4491,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -4538,7 +4554,7 @@
         <v>5.9917788529999996</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -4585,7 +4601,7 @@
         <v>4.7461766369999996</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -4632,7 +4648,7 @@
         <v>4.073181495</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -4679,7 +4695,7 @@
         <v>5.4910215940000002</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -4726,7 +4742,7 @@
         <v>5.8011526360000003</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6</v>
       </c>
@@ -4773,7 +4789,7 @@
         <v>4.3039415119999997</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7</v>
       </c>
@@ -4820,7 +4836,7 @@
         <v>4.3769877890000002</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
@@ -4867,7 +4883,7 @@
         <v>5.8555043710000003</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -4914,7 +4930,7 @@
         <v>5.4040652189999996</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>10</v>
       </c>
@@ -4961,7 +4977,7 @@
         <v>4.0410842770000004</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -5008,7 +5024,7 @@
         <v>4.8413475689999999</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
@@ -5055,7 +5071,7 @@
         <v>5.9995192240000002</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>13</v>
       </c>
@@ -5102,7 +5118,7 @@
         <v>4.9028480959999996</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -5149,7 +5165,7 @@
         <v>4.0253446080000002</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>15</v>
       </c>
@@ -5196,7 +5212,7 @@
         <v>5.3465929040000004</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -5243,7 +5259,7 @@
         <v>5.8859527780000001</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>17</v>
       </c>
@@ -5290,7 +5306,7 @@
         <v>4.4266675229999999</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>18</v>
       </c>
@@ -5337,7 +5353,7 @@
         <v>4.2607787000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19</v>
       </c>
@@ -5384,7 +5400,7 @@
         <v>5.7625194469999999</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
@@ -5431,7 +5447,7 @@
         <v>5.5440716959999996</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>21</v>
       </c>
@@ -5478,7 +5494,7 @@
         <v>4.0982377090000002</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>22</v>
       </c>
@@ -5525,7 +5541,7 @@
         <v>4.6867139629999999</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>23</v>
       </c>
@@ -5572,7 +5588,7 @@
         <v>5.981940765</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>24</v>
       </c>
@@ -5619,7 +5635,7 @@
         <v>5.0619805099999997</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>25</v>
       </c>
@@ -5666,7 +5682,7 @@
         <v>4.0021967260000002</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>26</v>
       </c>
@@ -5713,7 +5729,7 @@
         <v>5.1933846670000001</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>27</v>
       </c>
@@ -5760,7 +5776,7 @@
         <v>5.9483108429999998</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>28</v>
       </c>
@@ -5807,7 +5823,7 @@
         <v>4.563916624</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>29</v>
       </c>
@@ -5854,7 +5870,7 @@
         <v>4.1632948320000001</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>30</v>
       </c>

--- a/charts/e4e/example_bondYields.xlsx
+++ b/charts/e4e/example_bondYields.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/hi19329_bristol_ac_uk/Documents/Documents/GitHub/RDeconomist.github.io/charts/e4e/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40009_{98A79FEF-F9C3-46BE-8892-590BB7C4F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9777557-E3C2-4B28-89CC-98513F39C061}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:40009_{98A79FEF-F9C3-46BE-8892-590BB7C4F429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93B51A54-B142-4028-9378-371673B28F09}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -649,6 +649,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -949,7 +953,7 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
